--- a/test/workbooks/toExcel/StyledQuery.template.xlsx
+++ b/test/workbooks/toExcel/StyledQuery.template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/proj/bastion/excel2sql/test/workbooks/toExcel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383145FE-DEEC-C140-AB5E-D0DFBC6701ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DC742E-B969-134A-94BE-DBA60E088DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38360" yWindow="500" windowWidth="28840" windowHeight="27860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -86,6 +86,13 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -133,11 +140,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,9 +491,15 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.83203125" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -506,16 +521,16 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="3" t="e">
@@ -523,13 +538,14 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="C5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
